--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H2">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N2">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q2">
-        <v>63.66549729545779</v>
+        <v>77.95615448750799</v>
       </c>
       <c r="R2">
-        <v>572.9894756591201</v>
+        <v>701.6053903875719</v>
       </c>
       <c r="S2">
-        <v>0.01202733839381198</v>
+        <v>0.01367177919731631</v>
       </c>
       <c r="T2">
-        <v>0.01202733839381198</v>
+        <v>0.01367177919731631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H3">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q3">
-        <v>109.2005166383047</v>
+        <v>106.486425076548</v>
       </c>
       <c r="R3">
-        <v>982.8046497447422</v>
+        <v>958.3778256889319</v>
       </c>
       <c r="S3">
-        <v>0.02062956581164865</v>
+        <v>0.01867535540624216</v>
       </c>
       <c r="T3">
-        <v>0.02062956581164865</v>
+        <v>0.01867535540624216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H4">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N4">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q4">
-        <v>0.8062450522977779</v>
+        <v>3.938900837148</v>
       </c>
       <c r="R4">
-        <v>7.25620547068</v>
+        <v>35.450107534332</v>
       </c>
       <c r="S4">
-        <v>0.0001523114164540397</v>
+        <v>0.000690795779751312</v>
       </c>
       <c r="T4">
-        <v>0.0001523114164540397</v>
+        <v>0.000690795779751312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H5">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N5">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q5">
-        <v>498.2265325748374</v>
+        <v>591.545758629856</v>
       </c>
       <c r="R5">
-        <v>4484.038793173537</v>
+        <v>5323.911827668703</v>
       </c>
       <c r="S5">
-        <v>0.09412223823908902</v>
+        <v>0.1037439962279352</v>
       </c>
       <c r="T5">
-        <v>0.09412223823908902</v>
+        <v>0.1037439962279352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H6">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N6">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q6">
-        <v>1.745314579162</v>
+        <v>2.673368384328</v>
       </c>
       <c r="R6">
-        <v>15.707831212458</v>
+        <v>24.060315458952</v>
       </c>
       <c r="S6">
-        <v>0.0003297153079605734</v>
+        <v>0.0004688494770412969</v>
       </c>
       <c r="T6">
-        <v>0.0003297153079605734</v>
+        <v>0.0004688494770412969</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N7">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q7">
-        <v>89.62102244991999</v>
+        <v>112.534740007712</v>
       </c>
       <c r="R7">
-        <v>806.5892020492798</v>
+        <v>1012.812660069408</v>
       </c>
       <c r="S7">
-        <v>0.01693071459415916</v>
+        <v>0.01973609559793487</v>
       </c>
       <c r="T7">
-        <v>0.01693071459415916</v>
+        <v>0.01973609559793487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q8">
         <v>153.720026842272</v>
@@ -948,10 +948,10 @@
         <v>1383.480241580448</v>
       </c>
       <c r="S8">
-        <v>0.02903994878352691</v>
+        <v>0.02695908076802138</v>
       </c>
       <c r="T8">
-        <v>0.02903994878352691</v>
+        <v>0.02695908076802138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,43 +977,43 @@
         <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N9">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q9">
-        <v>1.13493978688</v>
+        <v>5.686057560672</v>
       </c>
       <c r="R9">
-        <v>10.21445808192</v>
+        <v>51.174518046048</v>
       </c>
       <c r="S9">
-        <v>0.0002144066323719815</v>
+        <v>0.0009972082895032455</v>
       </c>
       <c r="T9">
-        <v>0.0002144066323719815</v>
+        <v>0.0009972082895032452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N10">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q10">
-        <v>701.3464617077759</v>
+        <v>853.9344787811841</v>
       </c>
       <c r="R10">
-        <v>6312.118155369983</v>
+        <v>7685.410309030656</v>
       </c>
       <c r="S10">
-        <v>0.1324945470403784</v>
+        <v>0.1497611538129752</v>
       </c>
       <c r="T10">
-        <v>0.1324945470403784</v>
+        <v>0.1497611538129752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N11">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q11">
-        <v>2.456854712928</v>
+        <v>3.859179792192001</v>
       </c>
       <c r="R11">
-        <v>22.111692416352</v>
+        <v>34.732618129728</v>
       </c>
       <c r="S11">
-        <v>0.0004641355879101102</v>
+        <v>0.0006768144779389915</v>
       </c>
       <c r="T11">
-        <v>0.0004641355879101102</v>
+        <v>0.0006768144779389914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H12">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N12">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q12">
-        <v>144.8672923210933</v>
+        <v>195.5755174056285</v>
       </c>
       <c r="R12">
-        <v>1303.80563088984</v>
+        <v>1760.179656650657</v>
       </c>
       <c r="S12">
-        <v>0.02736753847778988</v>
+        <v>0.03429960479642589</v>
       </c>
       <c r="T12">
-        <v>0.02736753847778988</v>
+        <v>0.03429960479642589</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H13">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q13">
-        <v>248.479692101366</v>
+        <v>267.1519371104797</v>
       </c>
       <c r="R13">
-        <v>2236.317228912294</v>
+        <v>2404.367433994317</v>
       </c>
       <c r="S13">
-        <v>0.0469414277410593</v>
+        <v>0.04685252011622885</v>
       </c>
       <c r="T13">
-        <v>0.0469414277410593</v>
+        <v>0.04685252011622885</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H14">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N14">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q14">
-        <v>1.834565700973333</v>
+        <v>9.881869806162999</v>
       </c>
       <c r="R14">
-        <v>16.51109130876</v>
+        <v>88.93682825546699</v>
       </c>
       <c r="S14">
-        <v>0.0003465761429442471</v>
+        <v>0.001733060627921775</v>
       </c>
       <c r="T14">
-        <v>0.0003465761429442471</v>
+        <v>0.001733060627921775</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H15">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N15">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q15">
-        <v>1133.686718909728</v>
+        <v>1484.063299090492</v>
       </c>
       <c r="R15">
-        <v>10203.18047018755</v>
+        <v>13356.56969181442</v>
       </c>
       <c r="S15">
-        <v>0.2141699096077037</v>
+        <v>0.2602717626772793</v>
       </c>
       <c r="T15">
-        <v>0.2141699096077037</v>
+        <v>0.2602717626772793</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H16">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N16">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q16">
-        <v>3.971366094234</v>
+        <v>6.706916322618</v>
       </c>
       <c r="R16">
-        <v>35.742294848106</v>
+        <v>60.362246903562</v>
       </c>
       <c r="S16">
-        <v>0.0007502488149805357</v>
+        <v>0.001176244257564086</v>
       </c>
       <c r="T16">
-        <v>0.0007502488149805357</v>
+        <v>0.001176244257564086</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H17">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I17">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J17">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N17">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q17">
-        <v>31.85409826276889</v>
+        <v>43.07712198109711</v>
       </c>
       <c r="R17">
-        <v>286.68688436492</v>
+        <v>387.694097829874</v>
       </c>
       <c r="S17">
-        <v>0.006017702449697088</v>
+        <v>0.007554771063980521</v>
       </c>
       <c r="T17">
-        <v>0.006017702449697088</v>
+        <v>0.007554771063980522</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H18">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I18">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J18">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q18">
-        <v>54.63687766701634</v>
+        <v>58.84241920999933</v>
       </c>
       <c r="R18">
-        <v>491.7318990031471</v>
+        <v>529.581772889994</v>
       </c>
       <c r="S18">
-        <v>0.01032170083322976</v>
+        <v>0.01031965427442868</v>
       </c>
       <c r="T18">
-        <v>0.01032170083322976</v>
+        <v>0.01031965427442868</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H19">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I19">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J19">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N19">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q19">
-        <v>0.4033928927088889</v>
+        <v>2.176563389366</v>
       </c>
       <c r="R19">
-        <v>3.63053603438</v>
+        <v>19.589070504294</v>
       </c>
       <c r="S19">
-        <v>7.620678440243082E-05</v>
+        <v>0.0003817209079129579</v>
       </c>
       <c r="T19">
-        <v>7.620678440243084E-05</v>
+        <v>0.0003817209079129579</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H20">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I20">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J20">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N20">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q20">
-        <v>249.2803417855307</v>
+        <v>326.8771910238631</v>
       </c>
       <c r="R20">
-        <v>2243.523076069776</v>
+        <v>2941.894719214768</v>
       </c>
       <c r="S20">
-        <v>0.04709268211109363</v>
+        <v>0.05732700400240203</v>
       </c>
       <c r="T20">
-        <v>0.04709268211109364</v>
+        <v>0.05732700400240203</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H21">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I21">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J21">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N21">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q21">
-        <v>0.8732425641170001</v>
+        <v>1.477253678676</v>
       </c>
       <c r="R21">
-        <v>7.859183077053001</v>
+        <v>13.295283108084</v>
       </c>
       <c r="S21">
-        <v>0.000164968220852404</v>
+        <v>0.0002590775064016008</v>
       </c>
       <c r="T21">
-        <v>0.000164968220852404</v>
+        <v>0.0002590775064016008</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H22">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N22">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O22">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P22">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q22">
-        <v>170.2664287421644</v>
+        <v>138.839808065519</v>
       </c>
       <c r="R22">
-        <v>1532.39785867948</v>
+        <v>1249.558272589671</v>
       </c>
       <c r="S22">
-        <v>0.03216580475424935</v>
+        <v>0.0243494206730493</v>
       </c>
       <c r="T22">
-        <v>0.03216580475424935</v>
+        <v>0.02434942067304931</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H23">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.988727</v>
       </c>
       <c r="O23">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P23">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q23">
-        <v>292.0448716282937</v>
+        <v>189.652182260739</v>
       </c>
       <c r="R23">
-        <v>2628.403844654643</v>
+        <v>1706.869640346651</v>
       </c>
       <c r="S23">
-        <v>0.05517152376820383</v>
+        <v>0.03326078328521845</v>
       </c>
       <c r="T23">
-        <v>0.05517152376820383</v>
+        <v>0.03326078328521846</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H24">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N24">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O24">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P24">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q24">
-        <v>2.156214458024444</v>
+        <v>7.015177182788999</v>
       </c>
       <c r="R24">
-        <v>19.40593012222</v>
+        <v>63.136594645101</v>
       </c>
       <c r="S24">
-        <v>0.0004073402712294545</v>
+        <v>0.00123030637033939</v>
       </c>
       <c r="T24">
-        <v>0.0004073402712294545</v>
+        <v>0.00123030637033939</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H25">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N25">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O25">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P25">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q25">
-        <v>1332.452521534949</v>
+        <v>1053.542213954408</v>
       </c>
       <c r="R25">
-        <v>11992.07269381454</v>
+        <v>9481.879925589672</v>
       </c>
       <c r="S25">
-        <v>0.2517196605850158</v>
+        <v>0.1847679201075083</v>
       </c>
       <c r="T25">
-        <v>0.2517196605850158</v>
+        <v>0.1847679201075083</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H26">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N26">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O26">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P26">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q26">
-        <v>4.667653486572999</v>
+        <v>4.761265557654</v>
       </c>
       <c r="R26">
-        <v>42.008881379157</v>
+        <v>42.851390018886</v>
       </c>
       <c r="S26">
-        <v>0.0008817876302377526</v>
+        <v>0.0008350202986790952</v>
       </c>
       <c r="T26">
-        <v>0.0008817876302377526</v>
+        <v>0.0008350202986790954</v>
       </c>
     </row>
   </sheetData>
